--- a/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D41" t="n">
         <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>10856852</v>
+        <v>11056852</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14361</v>
+        <v>14362</v>
       </c>
       <c r="D63" t="n">
         <v>2812</v>
       </c>
       <c r="E63" t="n">
-        <v>36190509</v>
+        <v>36193311</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5212</v>
+        <v>5213</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20422343</v>
+        <v>20442161</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D65" t="n">
         <v>408</v>
       </c>
       <c r="E65" t="n">
-        <v>13636172</v>
+        <v>13657300</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15731</v>
+        <v>15734</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24673307</v>
+        <v>24684987</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3813,13 +3813,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="D83" t="n">
         <v>616</v>
       </c>
       <c r="E83" t="n">
-        <v>115758395</v>
+        <v>115800208</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151145</v>
+        <v>151149</v>
       </c>
       <c r="D91" t="n">
         <v>24835</v>
       </c>
       <c r="E91" t="n">
-        <v>482456452</v>
+        <v>482480640</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409195</v>
+        <v>409212</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1595933943</v>
+        <v>1596566709</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209620</v>
+        <v>209624</v>
       </c>
       <c r="D93" t="n">
         <v>34262</v>
       </c>
       <c r="E93" t="n">
-        <v>1309576395</v>
+        <v>1309639040</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50785</v>
+        <v>50792</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>933509089</v>
+        <v>933718057</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17302</v>
+        <v>17307</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>795091466</v>
+        <v>795758616</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>64957</v>
+        <v>64958</v>
       </c>
       <c r="D143" t="n">
         <v>13059</v>
       </c>
       <c r="E143" t="n">
-        <v>373530853</v>
+        <v>373531948</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="D146" t="n">
         <v>745</v>
       </c>
       <c r="E146" t="n">
-        <v>161471511</v>
+        <v>161502590</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>22701</v>
+        <v>22702</v>
       </c>
       <c r="D172" t="n">
         <v>5292</v>
       </c>
       <c r="E172" t="n">
-        <v>44679690</v>
+        <v>44686673</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7954,13 +7954,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>68736</v>
+        <v>68737</v>
       </c>
       <c r="D184" t="n">
         <v>13881</v>
       </c>
       <c r="E184" t="n">
-        <v>134186279</v>
+        <v>134191957</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
